--- a/data/trans_dic/P33A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33A-Clase-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.7299301277526555</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7890816898097535</v>
+        <v>0.7890816898097534</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7973676321828266</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7869826716328613</v>
+        <v>0.7830085519562393</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7973779480003991</v>
+        <v>0.7944266805225528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7952913322235036</v>
+        <v>0.8003166052040013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.705455486173338</v>
+        <v>0.709382205647612</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6742408155756656</v>
+        <v>0.6752496338926751</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7557573095773159</v>
+        <v>0.7584457142342069</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7644589166690613</v>
+        <v>0.7654674189764277</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7558360509880959</v>
+        <v>0.7579934491095037</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.787127592263195</v>
+        <v>0.7859093081587954</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8619701031270381</v>
+        <v>0.8608360525863548</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8732744671897767</v>
+        <v>0.8724077789230394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8650743085884958</v>
+        <v>0.8667800101252776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8108383988307786</v>
+        <v>0.8074327993996879</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7764373889973453</v>
+        <v>0.7763489154340885</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.823336383780393</v>
+        <v>0.822964476485641</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8244139544196599</v>
+        <v>0.827114803878446</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8218897113440036</v>
+        <v>0.8209114973346452</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8352063779438732</v>
+        <v>0.8351812077747454</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.7535882991185674</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7634291480082036</v>
+        <v>0.7634291480082035</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.7911813516987197</v>
@@ -773,7 +773,7 @@
         <v>0.7768488670190942</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.8010519155947124</v>
+        <v>0.8010519155947126</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7864540397260253</v>
+        <v>0.7875789390182858</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7555598017157753</v>
+        <v>0.7570311927894887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7940180819322024</v>
+        <v>0.7965186696842776</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6945180213583234</v>
+        <v>0.6914105132029131</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7062491087354338</v>
+        <v>0.7071835801452857</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7266061475283517</v>
+        <v>0.7294021184063129</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7567531772467162</v>
+        <v>0.7551398329291285</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7415487169884634</v>
+        <v>0.7454200910809025</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7762370912761751</v>
+        <v>0.7754743946529609</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8633901114537811</v>
+        <v>0.8657668618880692</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8429757248259592</v>
+        <v>0.8430888290095074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8655285788738092</v>
+        <v>0.8668669498568614</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.78928903847453</v>
+        <v>0.7875824971364295</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7954439041149288</v>
+        <v>0.7970952394035009</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7959727243564415</v>
+        <v>0.798298667568311</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8196397569575486</v>
+        <v>0.8205541099440972</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8075639466361465</v>
+        <v>0.8063097375658664</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8266411101224009</v>
+        <v>0.8239729112695614</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8502510597751658</v>
+        <v>0.8511714432374086</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8175579775278887</v>
+        <v>0.8157766951973959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7651688321593028</v>
+        <v>0.7613115620323598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6365148756124858</v>
+        <v>0.6407567204444601</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5883588020906828</v>
+        <v>0.5991459155516089</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6291509868140771</v>
+        <v>0.6280702740397918</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8001783861587674</v>
+        <v>0.8025322321285295</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7762606698930875</v>
+        <v>0.7782664693589428</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7392753542221899</v>
+        <v>0.7368904858458291</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9054417976677385</v>
+        <v>0.9069860452801548</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8791006835826658</v>
+        <v>0.8773824424967558</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8386830398911234</v>
+        <v>0.8374686325565243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7548222297003624</v>
+        <v>0.7534310478694639</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7482598696961583</v>
+        <v>0.7498998032084884</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7432467187197684</v>
+        <v>0.7414779454794915</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8521540609749439</v>
+        <v>0.8543290967831511</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8397168951750886</v>
+        <v>0.838057442993823</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8033959264192416</v>
+        <v>0.7998197412231351</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.8483736278687604</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8041595103185194</v>
+        <v>0.8041595103185192</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.7205909809648152</v>
@@ -982,7 +982,7 @@
         <v>0.7075346397362005</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7384654754068619</v>
+        <v>0.7384654754068618</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.7979596380852825</v>
@@ -991,7 +991,7 @@
         <v>0.7893730623694796</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.7758467706856811</v>
+        <v>0.7758467706856812</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8254011850078713</v>
+        <v>0.829048415624726</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8257670096395309</v>
+        <v>0.8257453660547494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7785324556231558</v>
+        <v>0.7780889162019997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6870606657776719</v>
+        <v>0.6873751287816217</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.674928748006433</v>
+        <v>0.6731002571198225</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7105669286124099</v>
+        <v>0.7087244643658053</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7777051078910564</v>
+        <v>0.7801249808972931</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7683292378565209</v>
+        <v>0.7691640573454133</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7573478253119739</v>
+        <v>0.7561207955480115</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8692467923169458</v>
+        <v>0.871538512615727</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8696770763556786</v>
+        <v>0.8677297460404553</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8268705265362998</v>
+        <v>0.8279132139691877</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7527438410632953</v>
+        <v>0.7565914495654157</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7375128700734249</v>
+        <v>0.7377479024456789</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.764804775465278</v>
+        <v>0.7630070733850104</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8168658097276366</v>
+        <v>0.8171521523780078</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8071531094303132</v>
+        <v>0.8077864018522707</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7939883325788596</v>
+        <v>0.7943565562121996</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.833683241950037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.835392861570067</v>
+        <v>0.8353928615700671</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.7032028822069505</v>
@@ -1091,7 +1091,7 @@
         <v>0.6937171797489902</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7011015856172101</v>
+        <v>0.70110158561721</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.7615609852189978</v>
@@ -1100,7 +1100,7 @@
         <v>0.7577108121196482</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7556455311315038</v>
+        <v>0.7556455311315036</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8156093268287601</v>
+        <v>0.8113811244496386</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8035945159438167</v>
+        <v>0.8035285249396587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8013066435314014</v>
+        <v>0.8052221195354122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6690084564912644</v>
+        <v>0.6688488051125184</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.657352754267865</v>
+        <v>0.6597372214295882</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6740542797013989</v>
+        <v>0.673412621842068</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.737863298820474</v>
+        <v>0.7351237002294106</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7319975321179322</v>
+        <v>0.7345545824238598</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7338683772155454</v>
+        <v>0.7328678023250889</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8791786878980457</v>
+        <v>0.8797473943750292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8622831620512696</v>
+        <v>0.8648827154438896</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8642030009597403</v>
+        <v>0.8656412359661219</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7367189094180646</v>
+        <v>0.7391941440091855</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7305290920003484</v>
+        <v>0.7276561002963298</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7273086349201168</v>
+        <v>0.7263935502450358</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7831449555679821</v>
+        <v>0.7830915047156524</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7824345888993891</v>
+        <v>0.7842683696202595</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7763649375918168</v>
+        <v>0.7756105024988934</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.7927407241512658</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.7424891364039102</v>
+        <v>0.7424891364039103</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.7762903171490583</v>
@@ -1209,7 +1209,7 @@
         <v>0.8109607815137276</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.7880117131292014</v>
+        <v>0.7880117131292013</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7938550224132338</v>
+        <v>0.7971920811771924</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8334130792876011</v>
+        <v>0.8408930684666598</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9063829975201391</v>
+        <v>0.9077117980151017</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7319906239820405</v>
+        <v>0.7314547770699976</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.766330273223596</v>
+        <v>0.7639431237451894</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7146457460289314</v>
+        <v>0.7157768725816067</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7544238208951751</v>
+        <v>0.7542035425960878</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7890704447435206</v>
+        <v>0.7893869757649613</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.764801892594983</v>
+        <v>0.7653218458863248</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8806037873540086</v>
+        <v>0.8847563813533725</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.912796814631456</v>
+        <v>0.9167650441435923</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9773801400718276</v>
+        <v>0.9786357926635068</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7853634338354928</v>
+        <v>0.7844946688909372</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8172454004930703</v>
+        <v>0.8160848626597788</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7696131046031314</v>
+        <v>0.7680512686404681</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7989899395286431</v>
+        <v>0.798767048162764</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8329015041368357</v>
+        <v>0.8304488181823804</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8110603362438847</v>
+        <v>0.8113146780524149</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.7363640780831776</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7380492636964368</v>
+        <v>0.7380492636964369</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.7899923565013652</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8339420982149456</v>
+        <v>0.8363265957636445</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8282982353260133</v>
+        <v>0.8285228884939961</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.813715852713334</v>
+        <v>0.8121402411751136</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7180261027044029</v>
+        <v>0.7198623671745837</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7217689160242825</v>
+        <v>0.7223313368659856</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7249189543518311</v>
+        <v>0.7248455583924798</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7799196808954021</v>
+        <v>0.77868616922253</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7766735157660675</v>
+        <v>0.7776593605546201</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7717907720250555</v>
+        <v>0.7728997755326202</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8612978963453018</v>
+        <v>0.8604925562633492</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8540005215507693</v>
+        <v>0.8537379856105176</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8404177909393586</v>
+        <v>0.841154270205677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7482365420174998</v>
+        <v>0.7493521725378266</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7513070937345159</v>
+        <v>0.7528195574347882</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7497663331359297</v>
+        <v>0.7498786721624127</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7994459650387061</v>
+        <v>0.8004325401065312</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7976079910799847</v>
+        <v>0.797933401615862</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7908816557231306</v>
+        <v>0.7911328106646009</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>342595</v>
+        <v>340865</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>337019</v>
+        <v>335772</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>437902</v>
+        <v>440669</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>220461</v>
+        <v>221688</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>230174</v>
+        <v>230519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>366715</v>
+        <v>368020</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>571690</v>
+        <v>572444</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>577490</v>
+        <v>579139</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>815344</v>
+        <v>814082</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>375239</v>
+        <v>374745</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>369097</v>
+        <v>368731</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>476325</v>
+        <v>477265</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>253394</v>
+        <v>252330</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>265063</v>
+        <v>265032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>399507</v>
+        <v>399326</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>616526</v>
+        <v>618546</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>627958</v>
+        <v>627211</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>865146</v>
+        <v>865120</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>327070</v>
+        <v>327538</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>280131</v>
+        <v>280676</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>380732</v>
+        <v>381931</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>234028</v>
+        <v>232981</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>261189</v>
+        <v>261535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>304476</v>
+        <v>305647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>569717</v>
+        <v>568502</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>549180</v>
+        <v>552047</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>697479</v>
+        <v>696794</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>359066</v>
+        <v>360054</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>312541</v>
+        <v>312583</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>415022</v>
+        <v>415664</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>265963</v>
+        <v>265388</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>294176</v>
+        <v>294787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>333543</v>
+        <v>334517</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>617061</v>
+        <v>617749</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>598070</v>
+        <v>597141</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>742769</v>
+        <v>740372</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>532523</v>
+        <v>533100</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>424218</v>
+        <v>423293</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>360114</v>
+        <v>358298</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>163449</v>
+        <v>164539</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>96524</v>
+        <v>98293</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>117964</v>
+        <v>117761</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>706638</v>
+        <v>708717</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>530139</v>
+        <v>531509</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>486539</v>
+        <v>484970</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>567090</v>
+        <v>568057</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>456151</v>
+        <v>455260</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>394712</v>
+        <v>394140</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>193829</v>
+        <v>193472</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>122757</v>
+        <v>123026</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>139357</v>
+        <v>139025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>752538</v>
+        <v>754459</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>573475</v>
+        <v>572342</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>528739</v>
+        <v>526385</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>948360</v>
+        <v>952550</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>938166</v>
+        <v>938142</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>877113</v>
+        <v>876613</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>520628</v>
+        <v>520867</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>552814</v>
+        <v>551316</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>606333</v>
+        <v>604761</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1482874</v>
+        <v>1487488</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1502226</v>
+        <v>1503858</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1499496</v>
+        <v>1497067</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>998737</v>
+        <v>1001370</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>988053</v>
+        <v>985841</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>931571</v>
+        <v>932746</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>570401</v>
+        <v>573316</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>604075</v>
+        <v>604267</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>652615</v>
+        <v>651081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1557543</v>
+        <v>1558089</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1578134</v>
+        <v>1579372</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1572042</v>
+        <v>1572771</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>413762</v>
+        <v>411617</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>494651</v>
+        <v>494610</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>453132</v>
+        <v>455347</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>508182</v>
+        <v>508061</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>480374</v>
+        <v>482117</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>557303</v>
+        <v>556772</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>934806</v>
+        <v>931335</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>985503</v>
+        <v>988946</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1021753</v>
+        <v>1020360</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>446011</v>
+        <v>446299</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>530777</v>
+        <v>532377</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>488700</v>
+        <v>489513</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>559615</v>
+        <v>561496</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>533849</v>
+        <v>531750</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>601333</v>
+        <v>600576</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>992173</v>
+        <v>992106</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1053407</v>
+        <v>1055876</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1080920</v>
+        <v>1079870</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>209532</v>
+        <v>210412</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>237665</v>
+        <v>239798</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>211946</v>
+        <v>212257</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>805162</v>
+        <v>804572</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>813162</v>
+        <v>810629</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>597370</v>
+        <v>598316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1028962</v>
+        <v>1028661</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1062312</v>
+        <v>1062738</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>818135</v>
+        <v>818692</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>232428</v>
+        <v>233524</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>260303</v>
+        <v>261435</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>228548</v>
+        <v>228841</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>863870</v>
+        <v>862914</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>867189</v>
+        <v>865957</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>643317</v>
+        <v>642012</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1089746</v>
+        <v>1089442</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1121321</v>
+        <v>1118019</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>867620</v>
+        <v>867892</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2833513</v>
+        <v>2841614</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2774083</v>
+        <v>2774836</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2788363</v>
+        <v>2782964</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2530030</v>
+        <v>2536500</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2516245</v>
+        <v>2518205</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2615335</v>
+        <v>2615070</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5398076</v>
+        <v>5389538</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5308839</v>
+        <v>5315578</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5429136</v>
+        <v>5436937</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2926460</v>
+        <v>2923724</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2860164</v>
+        <v>2859285</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2879863</v>
+        <v>2882387</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2636479</v>
+        <v>2640410</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2619221</v>
+        <v>2624494</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2704978</v>
+        <v>2705384</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>5533224</v>
+        <v>5540052</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>5451934</v>
+        <v>5454158</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5563430</v>
+        <v>5565197</v>
       </c>
     </row>
     <row r="32">
